--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09BF0F6-2D07-4633-ABA7-756C71A5F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DEE78-D1D3-4AC7-AA5C-D14599C4645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -298,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,6 +404,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,12 +1006,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="590" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C73A97A2-5510-4544-AD84-9CDA54AFC12D}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,4 +1588,640 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAF7AD6-8F80-47D0-944A-CA90F6591593}">
+  <dimension ref="A1:N48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="6" width="4.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1"/>
+      <c r="G1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="K1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
+        <v>45296</v>
+      </c>
+      <c r="C3" s="16">
+        <v>39</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>117</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="26">
+        <v>117</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>45300</v>
+      </c>
+      <c r="C4" s="16">
+        <v>78</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+      <c r="H4" s="27">
+        <v>339</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="27">
+        <v>339</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>45302</v>
+      </c>
+      <c r="C5" s="18">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="14">
+        <v>3</v>
+      </c>
+      <c r="H5" s="24">
+        <v>110</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="24">
+        <v>110</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>45303</v>
+      </c>
+      <c r="C6" s="18">
+        <v>84</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="24">
+        <v>254</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="24">
+        <v>254</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>45304</v>
+      </c>
+      <c r="C7" s="18">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7" s="14">
+        <v>5</v>
+      </c>
+      <c r="H7" s="24">
+        <v>501</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="K7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="24">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>45305</v>
+      </c>
+      <c r="C8" s="18">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8" s="21">
+        <v>6</v>
+      </c>
+      <c r="H8" s="25">
+        <v>308</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="25">
+        <v>308</v>
+      </c>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>45306</v>
+      </c>
+      <c r="C9" s="18">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>45307</v>
+      </c>
+      <c r="C10" s="18">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>45308</v>
+      </c>
+      <c r="C11" s="18">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>45309</v>
+      </c>
+      <c r="C12" s="18">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>45310</v>
+      </c>
+      <c r="C13" s="18">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="15">
+        <v>45312</v>
+      </c>
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="15">
+        <v>45319</v>
+      </c>
+      <c r="C16" s="16">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="15">
+        <v>45320</v>
+      </c>
+      <c r="C17" s="16">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="15">
+        <v>45321</v>
+      </c>
+      <c r="C18" s="16">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17">
+        <v>45323</v>
+      </c>
+      <c r="C19" s="18">
+        <v>79</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="17">
+        <v>45327</v>
+      </c>
+      <c r="C20" s="18">
+        <v>79</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="17">
+        <v>45329</v>
+      </c>
+      <c r="C21" s="18">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="17">
+        <v>45331</v>
+      </c>
+      <c r="C22" s="18">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="17">
+        <v>45332</v>
+      </c>
+      <c r="C23" s="18">
+        <v>46</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>45333</v>
+      </c>
+      <c r="C24" s="16">
+        <v>27</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>45334</v>
+      </c>
+      <c r="C25" s="16">
+        <v>50</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>45335</v>
+      </c>
+      <c r="C26" s="16">
+        <v>95</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
+        <v>45336</v>
+      </c>
+      <c r="C27" s="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
+        <v>45337</v>
+      </c>
+      <c r="C28" s="16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>45338</v>
+      </c>
+      <c r="C29" s="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>45339</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>45340</v>
+      </c>
+      <c r="C31" s="16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C32" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="17">
+        <v>45342</v>
+      </c>
+      <c r="C33" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="17">
+        <v>45343</v>
+      </c>
+      <c r="C34" s="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="17">
+        <v>45344</v>
+      </c>
+      <c r="C35" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="17">
+        <v>45345</v>
+      </c>
+      <c r="C36" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="17">
+        <v>45346</v>
+      </c>
+      <c r="C37" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="17">
+        <v>45347</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="17">
+        <v>45348</v>
+      </c>
+      <c r="C39" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="19">
+        <v>45349</v>
+      </c>
+      <c r="C40" s="20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" cm="1">
+        <f t="array" ref="B43:C48">_xlfn.GROUPBY(
+    CEILING(
+        _xlfn.MAP(
+            DAY(B3:B40),
+            _xlfn.LAMBDA(_xlpm.x, MIN(_xlpm.x, 30))
+        ) / 10,
+        1
+    ) + (3 * (MONTH(B3:B40) - 1)),
+    C3:C40,
+    _xleta.SUM,
+    ,
+    0
+)</f>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>117</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="34" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B43)</f>
+        <v>=GROUPBY(
+    CEILING(
+        MAP(
+            DAY(B3:B40),
+            LAMBDA(x, MIN(x, 30))
+        ) / 10,
+        1
+    ) + (3 * (MONTH(B3:B40) - 1)),
+    C3:C40,
+    SUM,
+    ,
+    0
+)</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DEE78-D1D3-4AC7-AA5C-D14599C4645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EE32D-82E6-4393-9189-88B363617E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1592,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAF7AD6-8F80-47D0-944A-CA90F6591593}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,6 +2215,240 @@
         <v>297</v>
       </c>
     </row>
+    <row r="51" spans="4:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" cm="1">
+        <f t="array" ref="D51:D88">CEILING(
+        _xlfn.MAP(
+            DAY(B3:B40),
+            _xlfn.LAMBDA(_xlpm.x, MIN(_xlpm.x, 30))
+        ) / 10,
+        1
+    ) + (3 * (MONTH(B3:B40) - 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" cm="1">
+        <f t="array" ref="G51:H56">_xlfn.GROUPBY(_xlfn.ANCHORARRAY(D51),C3:C40,_xleta.SUM,,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>

--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EE32D-82E6-4393-9189-88B363617E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEAE156-36E9-4BD9-B878-0B1DF4E54738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7255322182598184961/</t>
+  </si>
+  <si>
+    <t>This is the approach I would have used.</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAF7AD6-8F80-47D0-944A-CA90F6591593}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,6 +2217,9 @@
       <c r="C48">
         <v>297</v>
       </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="4:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" cm="1">

--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEAE156-36E9-4BD9-B878-0B1DF4E54738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510AAE40-E3FA-4CA2-A695-58B485DD87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="EDA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -325,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,6 +398,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,15 +419,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,6 +1031,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1040,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,19 +1062,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="32"/>
       <c r="E1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="K1" s="30" t="s">
+      <c r="H1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="31"/>
+      <c r="L1" s="34"/>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1597,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAF7AD6-8F80-47D0-944A-CA90F6591593}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C48" sqref="B43:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1613,19 +1620,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="32"/>
       <c r="E1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="K1" s="30" t="s">
+      <c r="H1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="31"/>
+      <c r="L1" s="34"/>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
@@ -2155,10 +2162,10 @@
       <c r="C43">
         <v>117</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="34" t="str">
+      <c r="D43" s="29"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="30" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B43)</f>
         <v>=GROUPBY(
     CEILING(
@@ -2174,9 +2181,9 @@
     0
 )</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -2464,4 +2471,852 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E96D0F-80BF-4F83-9610-3AD58A04C663}">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="E1"/>
+      <c r="G1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="K1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
+        <v>45296</v>
+      </c>
+      <c r="C3" s="16">
+        <v>39</v>
+      </c>
+      <c r="D3" s="35">
+        <f>DAY(B3)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="36">
+        <f>(MEDIAN(1,D3,10)=D3)*1+(MEDIAN(11,20,D3)=D3)*2+(MEDIAN(21,31,D3)=D3)*3 +(MONTH(B3)-1)*3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>117</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="26">
+        <v>117</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>45300</v>
+      </c>
+      <c r="C4" s="16">
+        <v>78</v>
+      </c>
+      <c r="D4" s="35">
+        <f t="shared" ref="D4:D40" si="0">DAY(B4)</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="36">
+        <f t="shared" ref="E4:E40" si="1">(MEDIAN(1,D4,10)=D4)*1+(MEDIAN(11,20,D4)=D4)*2+(MEDIAN(21,31,D4)=D4)*3 +(MONTH(B4)-1)*3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+      <c r="H4" s="27">
+        <v>339</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="27">
+        <v>339</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>45302</v>
+      </c>
+      <c r="C5" s="18">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>3</v>
+      </c>
+      <c r="H5" s="24">
+        <v>110</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="24">
+        <v>110</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>45303</v>
+      </c>
+      <c r="C6" s="18">
+        <v>84</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="24">
+        <v>254</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="24">
+        <v>254</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>45304</v>
+      </c>
+      <c r="C7" s="18">
+        <v>81</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5</v>
+      </c>
+      <c r="H7" s="24">
+        <v>501</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="K7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="24">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>45305</v>
+      </c>
+      <c r="C8" s="18">
+        <v>24</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="21">
+        <v>6</v>
+      </c>
+      <c r="H8" s="25">
+        <v>308</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="25">
+        <v>308</v>
+      </c>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>45306</v>
+      </c>
+      <c r="C9" s="18">
+        <v>32</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>45307</v>
+      </c>
+      <c r="C10" s="18">
+        <v>56</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>45308</v>
+      </c>
+      <c r="C11" s="18">
+        <v>38</v>
+      </c>
+      <c r="D11" s="35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>45309</v>
+      </c>
+      <c r="C12" s="18">
+        <v>11</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>45310</v>
+      </c>
+      <c r="C13" s="18">
+        <v>3</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" cm="1">
+        <f t="array" ref="G13:H18">_xlfn.GROUPBY(E3:E40,C3:C40,_xleta.SUM,,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>45311</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="15">
+        <v>45312</v>
+      </c>
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="15">
+        <v>45319</v>
+      </c>
+      <c r="C16" s="16">
+        <v>59</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="15">
+        <v>45320</v>
+      </c>
+      <c r="C17" s="16">
+        <v>30</v>
+      </c>
+      <c r="D17" s="35">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="15">
+        <v>45321</v>
+      </c>
+      <c r="C18" s="16">
+        <v>17</v>
+      </c>
+      <c r="D18" s="35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17">
+        <v>45323</v>
+      </c>
+      <c r="C19" s="18">
+        <v>79</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="17">
+        <v>45327</v>
+      </c>
+      <c r="C20" s="18">
+        <v>79</v>
+      </c>
+      <c r="D20" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="17">
+        <v>45329</v>
+      </c>
+      <c r="C21" s="18">
+        <v>29</v>
+      </c>
+      <c r="D21" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="17">
+        <v>45331</v>
+      </c>
+      <c r="C22" s="18">
+        <v>21</v>
+      </c>
+      <c r="D22" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E22" s="36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="17">
+        <v>45332</v>
+      </c>
+      <c r="C23" s="18">
+        <v>46</v>
+      </c>
+      <c r="D23" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>45333</v>
+      </c>
+      <c r="C24" s="16">
+        <v>27</v>
+      </c>
+      <c r="D24" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E24" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>45334</v>
+      </c>
+      <c r="C25" s="16">
+        <v>50</v>
+      </c>
+      <c r="D25" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E25" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>45335</v>
+      </c>
+      <c r="C26" s="16">
+        <v>95</v>
+      </c>
+      <c r="D26" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E26" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
+        <v>45336</v>
+      </c>
+      <c r="C27" s="16">
+        <v>58</v>
+      </c>
+      <c r="D27" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E27" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
+        <v>45337</v>
+      </c>
+      <c r="C28" s="16">
+        <v>57</v>
+      </c>
+      <c r="D28" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E28" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>45338</v>
+      </c>
+      <c r="C29" s="16">
+        <v>97</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E29" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>45339</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6</v>
+      </c>
+      <c r="D30" s="35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E30" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>45340</v>
+      </c>
+      <c r="C31" s="16">
+        <v>71</v>
+      </c>
+      <c r="D31" s="35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E31" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C32" s="16">
+        <v>40</v>
+      </c>
+      <c r="D32" s="35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E32" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="17">
+        <v>45342</v>
+      </c>
+      <c r="C33" s="18">
+        <v>11</v>
+      </c>
+      <c r="D33" s="35">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E33" s="36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="17">
+        <v>45343</v>
+      </c>
+      <c r="C34" s="18">
+        <v>96</v>
+      </c>
+      <c r="D34" s="35">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E34" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="17">
+        <v>45344</v>
+      </c>
+      <c r="C35" s="18">
+        <v>19</v>
+      </c>
+      <c r="D35" s="35">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E35" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="17">
+        <v>45345</v>
+      </c>
+      <c r="C36" s="18">
+        <v>54</v>
+      </c>
+      <c r="D36" s="35">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E36" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="17">
+        <v>45346</v>
+      </c>
+      <c r="C37" s="18">
+        <v>17</v>
+      </c>
+      <c r="D37" s="35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E37" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="17">
+        <v>45347</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+      <c r="D38" s="35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E38" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="17">
+        <v>45348</v>
+      </c>
+      <c r="C39" s="18">
+        <v>24</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E39" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="19">
+        <v>45349</v>
+      </c>
+      <c r="C40" s="20">
+        <v>86</v>
+      </c>
+      <c r="D40" s="35">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E40" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510AAE40-E3FA-4CA2-A695-58B485DD87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB8AC6-4671-4CF9-ADC3-AB4F8CB74DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,6 +776,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>709246</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398584</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Callout: Double Bent Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26F7F58-FBEF-3F05-EA7F-0D56BEE9609F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3341077" y="5246078"/>
+          <a:ext cx="1635369" cy="334108"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+            <a:gd name="adj6" fmla="val -16667"/>
+            <a:gd name="adj7" fmla="val 188887"/>
+            <a:gd name="adj8" fmla="val -108333"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Improperly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> grouped</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Basis">
   <a:themeElements>
@@ -1604,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAF7AD6-8F80-47D0-944A-CA90F6591593}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C48" sqref="B43:C48"/>
+    <sheetView topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2477,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E96D0F-80BF-4F83-9610-3AD58A04C663}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3019,6 +3101,16 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="K22" s="5" cm="1">
+        <f t="array" ref="K22:L27">_xlfn.LET(
+_xlpm.d, _xlfn.MAP(B3:B40,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.y,DAY(_xlpm.x),(MEDIAN(1,_xlpm.y,10)=_xlpm.y)*1+(MEDIAN(11,20,_xlpm.y)=_xlpm.y)*2+(MEDIAN(21,31,_xlpm.y)=_xlpm.y)*3+(MONTH(_xlpm.x)-1)*3 ))),
+_xlfn.GROUPBY(_xlpm.d,C3:C40,_xleta.SUM,,0)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>117</v>
+      </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -3037,6 +3129,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>339</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
@@ -3053,6 +3151,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="K24" s="4">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>110</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
@@ -3069,6 +3173,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="K25" s="4">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>254</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="15">
@@ -3085,6 +3195,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>512</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
@@ -3100,6 +3216,12 @@
       <c r="E27" s="36">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="K27" s="4">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -3318,5 +3440,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB8AC6-4671-4CF9-ADC3-AB4F8CB74DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8667D-A7DE-4552-9040-4E0774EEA24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2559,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E96D0F-80BF-4F83-9610-3AD58A04C663}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3101,15 +3101,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K22" s="5" cm="1">
-        <f t="array" ref="K22:L27">_xlfn.LET(
+      <c r="K22" s="6" t="str" cm="1">
+        <f t="array" ref="K22:L28">_xlfn.LET(
 _xlpm.d, _xlfn.MAP(B3:B40,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.y,DAY(_xlpm.x),(MEDIAN(1,_xlpm.y,10)=_xlpm.y)*1+(MEDIAN(11,20,_xlpm.y)=_xlpm.y)*2+(MEDIAN(21,31,_xlpm.y)=_xlpm.y)*3+(MONTH(_xlpm.x)-1)*3 ))),
-_xlfn.GROUPBY(_xlpm.d,C3:C40,_xleta.SUM,,0)
+_xlfn.VSTACK(G2:H2,_xlfn.GROUPBY(_xlpm.d,C3:C40,_xleta.SUM,,0))
 )</f>
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>117</v>
+        <v>Group</v>
+      </c>
+      <c r="L22" s="13" t="str">
+        <v>Total Sales</v>
       </c>
       <c r="N22" s="2"/>
     </row>
@@ -3129,11 +3129,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K23" s="4">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>339</v>
+      <c r="K23" s="22">
+        <v>1</v>
+      </c>
+      <c r="L23" s="26">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -3151,11 +3151,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K24" s="4">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>110</v>
+      <c r="K24" s="23">
+        <v>2</v>
+      </c>
+      <c r="L24" s="27">
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -3173,11 +3173,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K25" s="4">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>254</v>
+      <c r="K25" s="14">
+        <v>3</v>
+      </c>
+      <c r="L25" s="24">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -3195,11 +3195,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>512</v>
+      <c r="K26" s="14">
+        <v>4</v>
+      </c>
+      <c r="L26" s="24">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -3217,11 +3217,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K27" s="4">
-        <v>6</v>
-      </c>
-      <c r="L27">
-        <v>297</v>
+      <c r="K27" s="14">
+        <v>5</v>
+      </c>
+      <c r="L27" s="24">
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -3238,6 +3238,12 @@
       <c r="E28" s="36">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="K28" s="21">
+        <v>6</v>
+      </c>
+      <c r="L28" s="25">
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">

--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8667D-A7DE-4552-9040-4E0774EEA24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D65B7-B092-4C55-89A6-C3F754488B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>This is the approach I would have used.</t>
+  </si>
+  <si>
+    <t>Data to Add</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,6 +424,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,7 +1103,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="590" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="772" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2557,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E96D0F-80BF-4F83-9610-3AD58A04C663}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3102,13 +3108,15 @@
         <v>4</v>
       </c>
       <c r="K22" s="6" t="str" cm="1">
-        <f t="array" ref="K22:L28">_xlfn.LET(
-_xlpm.d, _xlfn.MAP(B3:B40,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.y,DAY(_xlpm.x),(MEDIAN(1,_xlpm.y,10)=_xlpm.y)*1+(MEDIAN(11,20,_xlpm.y)=_xlpm.y)*2+(MEDIAN(21,31,_xlpm.y)=_xlpm.y)*3+(MONTH(_xlpm.x)-1)*3 ))),
-_xlfn.VSTACK(G2:H2,_xlfn.GROUPBY(_xlpm.d,C3:C40,_xleta.SUM,,0))
+        <f t="array" aca="1" ref="K22:L30" ca="1">_xlfn.LET(
+_xlpm.z, OFFSET(B3:B50,0,0,COUNT(B3:B50)),
+_xlpm.d, _xlfn.MAP(_xlpm.z,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.y,DAY(_xlpm.x),(MEDIAN(1,_xlpm.y,10)=_xlpm.y)*1+(MEDIAN(11,20,_xlpm.y)=_xlpm.y)*2+(MEDIAN(21,31,_xlpm.y)=_xlpm.y)*3+(MONTH(_xlpm.x)-1)*3 ))),
+_xlfn.VSTACK(G2:H2,_xlfn.GROUPBY(_xlpm.d,OFFSET(_xlpm.z,0,1),_xleta.SUM,,0))
 )</f>
         <v>Group</v>
       </c>
       <c r="L22" s="13" t="str">
+        <f ca="1"/>
         <v>Total Sales</v>
       </c>
       <c r="N22" s="2"/>
@@ -3130,9 +3138,11 @@
         <v>4</v>
       </c>
       <c r="K23" s="22">
+        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L23" s="26">
+        <f ca="1"/>
         <v>117</v>
       </c>
     </row>
@@ -3152,9 +3162,11 @@
         <v>5</v>
       </c>
       <c r="K24" s="23">
+        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="L24" s="27">
+        <f ca="1"/>
         <v>339</v>
       </c>
     </row>
@@ -3174,9 +3186,11 @@
         <v>5</v>
       </c>
       <c r="K25" s="14">
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="L25" s="24">
+        <f ca="1"/>
         <v>110</v>
       </c>
     </row>
@@ -3196,9 +3210,11 @@
         <v>5</v>
       </c>
       <c r="K26" s="14">
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="L26" s="24">
+        <f ca="1"/>
         <v>254</v>
       </c>
     </row>
@@ -3218,9 +3234,11 @@
         <v>5</v>
       </c>
       <c r="K27" s="14">
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="L27" s="24">
+        <f ca="1"/>
         <v>512</v>
       </c>
     </row>
@@ -3240,9 +3258,11 @@
         <v>5</v>
       </c>
       <c r="K28" s="21">
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="L28" s="25">
+        <f ca="1"/>
         <v>297</v>
       </c>
     </row>
@@ -3261,6 +3281,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="K29">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="15">
@@ -3277,6 +3305,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="K30">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <f ca="1"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
@@ -3310,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="17">
         <v>45342</v>
       </c>
@@ -3326,7 +3362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="17">
         <v>45343</v>
       </c>
@@ -3342,7 +3378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="17">
         <v>45344</v>
       </c>
@@ -3358,7 +3394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="17">
         <v>45345</v>
       </c>
@@ -3374,7 +3410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="17">
         <v>45346</v>
       </c>
@@ -3390,7 +3426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="17">
         <v>45347</v>
       </c>
@@ -3406,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="17">
         <v>45348</v>
       </c>
@@ -3422,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="19">
         <v>45349</v>
       </c>
@@ -3436,6 +3472,57 @@
       <c r="E40" s="36">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="37">
+        <v>45352</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="37">
+        <v>45353</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="37">
+        <v>45363</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="37">
+        <v>45352</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="37">
+        <v>45353</v>
+      </c>
+      <c r="I46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="37">
+        <v>45363</v>
+      </c>
+      <c r="I47">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/CH-133 Custom Grouping.xlsx
+++ b/CH-133 Custom Grouping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D65B7-B092-4C55-89A6-C3F754488B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A02350-B4B2-4A6F-80F2-54291B4806EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Question</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Data to Add</t>
+  </si>
+  <si>
+    <t>I am making a simple note because I just spent 3 hours working on a battery spreadsheet.</t>
+  </si>
+  <si>
+    <t>I am taking this time as Excel practice time for today.</t>
   </si>
 </sst>
 </file>
@@ -410,6 +416,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,11 +431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,19 +1156,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="35"/>
       <c r="E1"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1708,19 +1714,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="35"/>
       <c r="E1"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
@@ -2565,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E96D0F-80BF-4F83-9610-3AD58A04C663}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2582,19 +2588,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="35"/>
       <c r="E1"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
@@ -2628,11 +2634,11 @@
       <c r="C3" s="16">
         <v>39</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="31">
         <f>DAY(B3)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="32">
         <f>(MEDIAN(1,D3,10)=D3)*1+(MEDIAN(11,20,D3)=D3)*2+(MEDIAN(21,31,D3)=D3)*3 +(MONTH(B3)-1)*3</f>
         <v>1</v>
       </c>
@@ -2651,6 +2657,9 @@
         <v>117</v>
       </c>
       <c r="M3" s="9"/>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15">
@@ -2659,11 +2668,11 @@
       <c r="C4" s="16">
         <v>78</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="31">
         <f t="shared" ref="D4:D40" si="0">DAY(B4)</f>
         <v>9</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <f t="shared" ref="E4:E40" si="1">(MEDIAN(1,D4,10)=D4)*1+(MEDIAN(11,20,D4)=D4)*2+(MEDIAN(21,31,D4)=D4)*3 +(MONTH(B4)-1)*3</f>
         <v>1</v>
       </c>
@@ -2682,6 +2691,9 @@
         <v>339</v>
       </c>
       <c r="M4" s="9"/>
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
@@ -2690,11 +2702,11 @@
       <c r="C5" s="18">
         <v>7</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2721,11 +2733,11 @@
       <c r="C6" s="18">
         <v>84</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2752,11 +2764,11 @@
       <c r="C7" s="18">
         <v>81</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2781,11 +2793,11 @@
       <c r="C8" s="18">
         <v>24</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2813,11 +2825,11 @@
       <c r="C9" s="18">
         <v>32</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2837,11 +2849,11 @@
       <c r="C10" s="18">
         <v>56</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2861,11 +2873,11 @@
       <c r="C11" s="18">
         <v>38</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2885,11 +2897,11 @@
       <c r="C12" s="18">
         <v>11</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2910,11 +2922,11 @@
       <c r="C13" s="18">
         <v>3</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2933,11 +2945,11 @@
       <c r="C14" s="18">
         <v>3</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2956,11 +2968,11 @@
       <c r="C15" s="16">
         <v>4</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2979,11 +2991,11 @@
       <c r="C16" s="16">
         <v>59</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="31">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3002,11 +3014,11 @@
       <c r="C17" s="16">
         <v>30</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3025,11 +3037,11 @@
       <c r="C18" s="16">
         <v>17</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3048,11 +3060,11 @@
       <c r="C19" s="18">
         <v>79</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3065,11 +3077,11 @@
       <c r="C20" s="18">
         <v>79</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3082,11 +3094,11 @@
       <c r="C21" s="18">
         <v>29</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3099,11 +3111,11 @@
       <c r="C22" s="18">
         <v>21</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3129,11 +3141,11 @@
       <c r="C23" s="18">
         <v>46</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3153,11 +3165,11 @@
       <c r="C24" s="16">
         <v>27</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3177,11 +3189,11 @@
       <c r="C25" s="16">
         <v>50</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3201,11 +3213,11 @@
       <c r="C26" s="16">
         <v>95</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3225,11 +3237,11 @@
       <c r="C27" s="16">
         <v>58</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3249,11 +3261,11 @@
       <c r="C28" s="16">
         <v>57</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3273,11 +3285,11 @@
       <c r="C29" s="16">
         <v>97</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3297,11 +3309,11 @@
       <c r="C30" s="16">
         <v>6</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3321,11 +3333,11 @@
       <c r="C31" s="16">
         <v>71</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3337,11 +3349,11 @@
       <c r="C32" s="16">
         <v>40</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3353,11 +3365,11 @@
       <c r="C33" s="18">
         <v>11</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3369,11 +3381,11 @@
       <c r="C34" s="18">
         <v>96</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3385,11 +3397,11 @@
       <c r="C35" s="18">
         <v>19</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3401,11 +3413,11 @@
       <c r="C36" s="18">
         <v>54</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3417,11 +3429,11 @@
       <c r="C37" s="18">
         <v>17</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="31">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3433,11 +3445,11 @@
       <c r="C38" s="18">
         <v>1</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3449,11 +3461,11 @@
       <c r="C39" s="18">
         <v>24</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="31">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3465,11 +3477,11 @@
       <c r="C40" s="20">
         <v>86</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="31">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3478,7 +3490,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="37">
+      <c r="B41" s="33">
         <v>45352</v>
       </c>
       <c r="C41">
@@ -3486,7 +3498,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="33">
         <v>45353</v>
       </c>
       <c r="C42">
@@ -3494,7 +3506,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="37">
+      <c r="B43" s="33">
         <v>45363</v>
       </c>
       <c r="C43">
@@ -3502,7 +3514,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H45" s="37">
+      <c r="H45" s="33">
         <v>45352</v>
       </c>
       <c r="I45">
@@ -3510,7 +3522,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H46" s="37">
+      <c r="H46" s="33">
         <v>45353</v>
       </c>
       <c r="I46">
@@ -3518,7 +3530,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H47" s="37">
+      <c r="H47" s="33">
         <v>45363</v>
       </c>
       <c r="I47">
